--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>List of Components</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Practical Example: Rotary Encoder</t>
   </si>
   <si>
-    <t>Summerizing Build: 4-bit Calculator</t>
-  </si>
-  <si>
     <t>Issued</t>
   </si>
   <si>
@@ -263,12 +260,6 @@
     <t>Exercise 002: Button Matrix</t>
   </si>
   <si>
-    <t>Exercise 003: Fading While Moving</t>
-  </si>
-  <si>
-    <t>Exercise 004: Do-It-Yourself</t>
-  </si>
-  <si>
     <t>Basic Structure of Python</t>
   </si>
   <si>
@@ -288,6 +279,30 @@
   </si>
   <si>
     <t>Practical Example: IoT</t>
+  </si>
+  <si>
+    <t>17-a</t>
+  </si>
+  <si>
+    <t>17-b</t>
+  </si>
+  <si>
+    <t>18-a</t>
+  </si>
+  <si>
+    <t>18-b</t>
+  </si>
+  <si>
+    <t>SPI Communication: Micro SD Card</t>
+  </si>
+  <si>
+    <t>Exercise 003: Do-It-Yourself</t>
+  </si>
+  <si>
+    <t>Exercise 004: Fading While Moving</t>
+  </si>
+  <si>
+    <t>Arduino: Bootloader</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1442,7 @@
     </row>
     <row r="17" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -1590,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>12</v>
@@ -1867,7 +1882,7 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3">
         <v>4</v>
@@ -2028,10 +2043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D55"/>
+  <dimension ref="B1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2049,13 +2064,13 @@
     <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2063,7 +2078,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -2225,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" s="14">
         <v>10</v>
@@ -2276,7 +2291,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" s="14">
         <v>12</v>
@@ -2287,7 +2302,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D25" s="25">
         <v>13</v>
@@ -2298,7 +2313,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="13">
         <v>0</v>
@@ -2309,7 +2324,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
@@ -2320,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
@@ -2331,7 +2346,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="14">
         <v>3</v>
@@ -2342,7 +2357,7 @@
         <v>31</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="14">
         <v>4</v>
@@ -2353,7 +2368,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="14"/>
     </row>
@@ -2362,7 +2377,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="14">
         <v>5</v>
@@ -2373,7 +2388,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="14">
         <v>6</v>
@@ -2384,7 +2399,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="14"/>
     </row>
@@ -2415,7 +2430,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="14"/>
     </row>
@@ -2426,8 +2441,8 @@
       <c r="C38" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="14">
-        <v>17</v>
+      <c r="D38" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -2435,10 +2450,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="14">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -2446,21 +2461,21 @@
         <v>31</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="14">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="14">
-        <v>10</v>
+      <c r="C41" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -2468,20 +2483,22 @@
         <v>31</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D42" s="14">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="14"/>
+      <c r="C43" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="14">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
@@ -2543,7 +2560,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D49" s="14"/>
     </row>
@@ -2552,10 +2569,10 @@
         <v>31</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D50" s="14">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -2563,10 +2580,10 @@
         <v>31</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D51" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -2574,18 +2591,18 @@
         <v>31</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D52" s="14">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>66</v>
+      <c r="C53" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="D53" s="14"/>
     </row>
@@ -2593,19 +2610,61 @@
       <c r="B54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="24" t="s">
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D59" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Shin\Desktop\~\CS\Repositories\Workshop_Materials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
     <sheet name="Workshop List" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
   <si>
     <t>List of Components</t>
   </si>
@@ -303,12 +308,15 @@
   </si>
   <si>
     <t>Arduino: Bootloader</t>
+  </si>
+  <si>
+    <t>17-c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -836,6 +844,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -883,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -916,9 +927,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -951,6 +979,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2043,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D59"/>
+  <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2461,32 +2506,32 @@
         <v>31</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="14">
-        <v>22</v>
+      <c r="C42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -2494,10 +2539,10 @@
         <v>31</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D43" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -2505,10 +2550,10 @@
         <v>31</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D44" s="14">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -2516,10 +2561,10 @@
         <v>31</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -2527,10 +2572,10 @@
         <v>31</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -2538,10 +2583,10 @@
         <v>31</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
@@ -2549,41 +2594,41 @@
         <v>31</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="14"/>
+      <c r="C49" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="14">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="14">
-        <v>9</v>
-      </c>
+      <c r="C50" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -2591,41 +2636,41 @@
         <v>31</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="14"/>
+      <c r="C53" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="14">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="14">
-        <v>19</v>
-      </c>
+      <c r="C54" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -2633,38 +2678,49 @@
         <v>31</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="14"/>
+      <c r="C57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="14">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="24" t="s">
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D60" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>List of Components</t>
   </si>
@@ -28,15 +28,6 @@
     <t>Categories</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Arduino Uno</t>
-  </si>
-  <si>
     <t>Quantity Minimum</t>
   </si>
   <si>
@@ -46,9 +37,6 @@
     <t>Potentiometer, 10k</t>
   </si>
   <si>
-    <t>LED, Blue</t>
-  </si>
-  <si>
     <t>LED, Red</t>
   </si>
   <si>
@@ -64,12 +52,6 @@
     <t>Price Total</t>
   </si>
   <si>
-    <t>MMA8451 Sensor</t>
-  </si>
-  <si>
-    <t>Tactile Button</t>
-  </si>
-  <si>
     <t>Logic Gate, XOR</t>
   </si>
   <si>
@@ -82,9 +64,6 @@
     <t>Resistor, TH, 10k</t>
   </si>
   <si>
-    <t>Resistor, TH, 1k</t>
-  </si>
-  <si>
     <t>Breadboard, Full</t>
   </si>
   <si>
@@ -208,21 +187,6 @@
     <t>Practical Exercise 007</t>
   </si>
   <si>
-    <t>Micro SD Card Reader</t>
-  </si>
-  <si>
-    <t>List of Components (End of Distribution)</t>
-  </si>
-  <si>
-    <t>Practical Example: Micro SD Card</t>
-  </si>
-  <si>
-    <t>Practical Example: Rotary Encoder</t>
-  </si>
-  <si>
-    <t>Issued</t>
-  </si>
-  <si>
     <t>File No.</t>
   </si>
   <si>
@@ -232,9 +196,6 @@
     <t>Diode, Signal</t>
   </si>
   <si>
-    <t>Returned</t>
-  </si>
-  <si>
     <t>Basic Structure of Arduino Programming Block</t>
   </si>
   <si>
@@ -311,6 +272,18 @@
   </si>
   <si>
     <t>17-c</t>
+  </si>
+  <si>
+    <t>Practical Example: Wireless Device</t>
+  </si>
+  <si>
+    <t>4-bit Calculator (Pending)</t>
+  </si>
+  <si>
+    <t>LIS3DH Sensor</t>
+  </si>
+  <si>
+    <t>LED, Amber</t>
   </si>
 </sst>
 </file>
@@ -375,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -503,51 +476,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -714,6 +642,58 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -723,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,76 +741,82 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -1183,903 +1169,429 @@
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+    <row r="1" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4">
+      <c r="D4" s="4">
         <v>2.57</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G9" si="0">F4*C4</f>
+      <c r="E4" s="4">
+        <f>D4*C4</f>
         <v>2.57</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4">
+      <c r="D5" s="4">
         <v>0.76</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" si="0"/>
+      <c r="E5" s="4">
+        <f>D5*C5</f>
         <v>0.76</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4">
+      <c r="D6" s="4">
         <v>0.21</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
+      <c r="E6" s="4">
+        <f>D6*C6</f>
         <v>0.21</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4">
+      <c r="D7" s="4">
         <v>0.1</v>
       </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
+      <c r="E7" s="4">
+        <f>D7*C7</f>
         <v>0.4</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4">
+      <c r="D8" s="4">
         <v>0.1</v>
       </c>
-      <c r="G8" s="4">
-        <f t="shared" si="0"/>
+      <c r="E8" s="4">
+        <f>D8*C8</f>
         <v>0.4</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4">
+      <c r="D9" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
+      <c r="E9" s="4">
+        <f>D9*C9</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="E10" s="4">
+        <f>D10*C10</f>
+        <v>1.17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11*C11</f>
+        <v>0.46</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E12" s="4">
+        <f>D12*C12</f>
+        <v>0.92</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <f>D13*C13</f>
+        <v>1.02</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="E14" s="4">
+        <f>D14*C14</f>
+        <v>0.81</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
         <v>0.1</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" ref="G10:G22" si="1">F10*C10</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="E15" s="4">
+        <f>D15*C15</f>
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>1.17</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.46</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.92</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>4.95</v>
+      </c>
+      <c r="E16" s="4">
+        <f>D16*C16</f>
+        <v>4.95</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="E17" s="4">
+        <f>D17*C17</f>
+        <v>11.9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4">
-        <v>7.95</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>7.95</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="E18" s="4">
+        <f>D18*C18</f>
+        <v>5.85</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4">
-        <v>5.95</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>11.9</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4">
-        <v>24.95</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>24.95</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>5.85</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="7">
-        <f>SUM(G4:G22)</f>
-        <v>69.849999999999994</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-    </row>
-    <row r="25" spans="2:8" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="2:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4">
-        <v>2.57</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" ref="G28:G46" si="2">F28*C28</f>
-        <v>2.57</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="2"/>
-        <v>0.76</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="2"/>
-        <v>0.21</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="3">
-        <v>10</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="G35" s="4">
-        <f t="shared" si="2"/>
-        <v>1.17</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="G36" s="4">
-        <f t="shared" si="2"/>
-        <v>0.46</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="2"/>
-        <v>0.92</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="7">
+        <f>SUM(E4:E18)</f>
+        <v>32.380000000000003</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="3">
-        <v>20</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="2"/>
-        <v>1.02</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="3">
-        <v>20</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G39" s="4">
-        <f t="shared" si="2"/>
-        <v>1.02</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="4">
-        <v>0.81</v>
-      </c>
-      <c r="G40" s="4">
-        <f t="shared" si="2"/>
-        <v>0.81</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3">
-        <v>4</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4">
-        <v>7.95</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" si="2"/>
-        <v>7.95</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4">
-        <v>5.95</v>
-      </c>
-      <c r="G43" s="4">
-        <f t="shared" si="2"/>
-        <v>11.9</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4">
-        <v>24.95</v>
-      </c>
-      <c r="G44" s="4">
-        <f t="shared" si="2"/>
-        <v>24.95</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3">
-        <v>3</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4">
-        <v>1.95</v>
-      </c>
-      <c r="G45" s="4">
-        <f t="shared" si="2"/>
-        <v>5.85</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="7">
-        <f>SUM(G28:G46)</f>
-        <v>69.849999999999994</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="2:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="B47:F47"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2090,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2109,21 +1621,21 @@
     <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D3" s="17">
         <v>0</v>
@@ -2131,10 +1643,10 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14">
         <v>1</v>
@@ -2142,10 +1654,10 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" s="14">
         <v>2</v>
@@ -2153,19 +1665,19 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14">
         <v>3</v>
@@ -2173,10 +1685,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" s="14">
         <v>5</v>
@@ -2184,10 +1696,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="14">
         <v>6</v>
@@ -2195,28 +1707,28 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" s="14">
         <v>7</v>
@@ -2224,19 +1736,19 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14" s="14">
         <v>8</v>
@@ -2244,28 +1756,28 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D17" s="14">
         <v>9</v>
@@ -2273,19 +1785,19 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D19" s="14">
         <v>10</v>
@@ -2293,19 +1805,19 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D21" s="14">
         <v>11</v>
@@ -2313,19 +1825,19 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D23" s="14">
         <v>4</v>
@@ -2333,32 +1845,32 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D24" s="14">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="25">
+      <c r="B25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>71</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="D26" s="13">
         <v>0</v>
@@ -2366,10 +1878,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D27" s="14">
         <v>1</v>
@@ -2377,10 +1889,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D28" s="14">
         <v>2</v>
@@ -2388,10 +1900,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D29" s="14">
         <v>3</v>
@@ -2399,10 +1911,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D30" s="14">
         <v>4</v>
@@ -2410,19 +1922,19 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D31" s="14"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D32" s="14">
         <v>5</v>
@@ -2430,10 +1942,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D33" s="14">
         <v>6</v>
@@ -2441,19 +1953,19 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D35" s="14">
         <v>7</v>
@@ -2461,10 +1973,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D36" s="14">
         <v>8</v>
@@ -2472,74 +1984,74 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D37" s="14"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D43" s="14">
         <v>22</v>
@@ -2547,10 +2059,10 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D44" s="14">
         <v>23</v>
@@ -2558,10 +2070,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D45" s="14">
         <v>12</v>
@@ -2569,10 +2081,10 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D46" s="14">
         <v>13</v>
@@ -2580,10 +2092,10 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D47" s="14">
         <v>14</v>
@@ -2591,10 +2103,10 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D48" s="14">
         <v>15</v>
@@ -2602,10 +2114,10 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D49" s="14">
         <v>16</v>
@@ -2613,19 +2125,19 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D51" s="14">
         <v>9</v>
@@ -2633,10 +2145,10 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D52" s="14">
         <v>10</v>
@@ -2644,10 +2156,10 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D53" s="14">
         <v>11</v>
@@ -2655,19 +2167,19 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D54" s="14"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D55" s="14">
         <v>19</v>
@@ -2675,10 +2187,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D56" s="14">
         <v>20</v>
@@ -2686,10 +2198,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D57" s="14">
         <v>21</v>
@@ -2697,28 +2209,28 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="D60" s="15"/>
     </row>

--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -783,6 +783,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,7 +804,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,12 +817,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,7 +1160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1177,13 +1177,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -1213,7 +1213,7 @@
         <v>2.57</v>
       </c>
       <c r="E4" s="4">
-        <f>D4*C4</f>
+        <f t="shared" ref="E4:E18" si="0">D4*C4</f>
         <v>2.57</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1231,7 +1231,7 @@
         <v>0.76</v>
       </c>
       <c r="E5" s="4">
-        <f>D5*C5</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1249,7 +1249,7 @@
         <v>0.21</v>
       </c>
       <c r="E6" s="4">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1267,7 +1267,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="4">
-        <f>D7*C7</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1285,7 +1285,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="4">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -1303,7 +1303,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E9" s="4">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -1321,7 +1321,7 @@
         <v>0.39</v>
       </c>
       <c r="E10" s="4">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>1.17</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1339,7 +1339,7 @@
         <v>0.46</v>
       </c>
       <c r="E11" s="4">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>0.46</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1357,7 +1357,7 @@
         <v>0.46</v>
       </c>
       <c r="E12" s="4">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1375,7 +1375,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E13" s="4">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1393,7 +1393,7 @@
         <v>0.81</v>
       </c>
       <c r="E14" s="4">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1411,7 +1411,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="4">
-        <f>D15*C15</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1429,7 +1429,7 @@
         <v>4.95</v>
       </c>
       <c r="E16" s="4">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>4.95</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1447,7 +1447,7 @@
         <v>5.95</v>
       </c>
       <c r="E17" s="4">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>11.9</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1465,7 +1465,7 @@
         <v>1.95</v>
       </c>
       <c r="E18" s="4">
-        <f>D18*C18</f>
+        <f t="shared" si="0"/>
         <v>5.85</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1473,11 +1473,11 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="7">
         <f>SUM(E4:E18)</f>
         <v>32.380000000000003</v>
@@ -1485,13 +1485,13 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -2051,10 +2051,10 @@
         <v>24</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D43" s="14">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -2062,10 +2062,10 @@
         <v>24</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D44" s="14">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -2073,10 +2073,10 @@
         <v>24</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D45" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>24</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D46" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -2095,42 +2095,42 @@
         <v>24</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="14">
-        <v>15</v>
-      </c>
+      <c r="C48" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D49" s="14">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="14"/>
+      <c r="C50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="14">
+        <v>23</v>
+      </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
@@ -2229,7 +2229,7 @@
       <c r="B60" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="15"/>

--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie Shin\Desktop\~\CS\Repositories\Workshop_Materials\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
     <sheet name="Workshop List" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
   <si>
     <t>List of Components</t>
   </si>
@@ -284,12 +279,18 @@
   </si>
   <si>
     <t>LED, Amber</t>
+  </si>
+  <si>
+    <t>16-b</t>
+  </si>
+  <si>
+    <t>16-a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -880,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,26 +914,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -965,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1600,9 +1567,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D60"/>
+  <dimension ref="B1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -2097,39 +2064,39 @@
       <c r="C47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="14">
-        <v>16</v>
+      <c r="D47" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="14"/>
+      <c r="C48" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="14">
-        <v>22</v>
-      </c>
+      <c r="C49" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D50" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -2137,10 +2104,10 @@
         <v>24</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D51" s="14">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -2148,10 +2115,10 @@
         <v>24</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -2159,41 +2126,41 @@
         <v>24</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="14"/>
+      <c r="C54" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="14">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="14">
-        <v>19</v>
-      </c>
+      <c r="C55" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -2201,38 +2168,49 @@
         <v>24</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="14"/>
+      <c r="C58" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="14">
+        <v>21</v>
+      </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="27" t="s">
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="15"/>
+      <c r="D61" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL WORKSHOP RELATED\Workshop Program Files\Workshop_Materials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27800" windowHeight="12590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
     <sheet name="Workshop List" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -290,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -881,7 +886,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,9 +919,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -949,6 +971,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,19 +1170,19 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1191,7 @@
       <c r="E2" s="29"/>
       <c r="F2" s="30"/>
     </row>
-    <row r="3" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>87</v>
       </c>
@@ -1223,7 +1262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1352,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1349,7 +1388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1385,7 +1424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>86</v>
       </c>
@@ -1403,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1439,7 +1478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="31" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1490,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="34" t="s">
         <v>19</v>
       </c>
@@ -1460,96 +1499,96 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -1569,24 +1608,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="32.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>56</v>
       </c>
@@ -1597,7 +1636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
@@ -1619,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +1678,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
@@ -1650,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1720,7 @@
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1690,7 +1729,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
@@ -1710,7 +1749,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
@@ -1730,7 +1769,7 @@
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1739,7 +1778,7 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1750,7 +1789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1798,7 @@
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1818,7 @@
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
@@ -1799,7 +1838,7 @@
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1810,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>23</v>
       </c>
@@ -1821,7 +1860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="24" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>24</v>
       </c>
@@ -1843,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>24</v>
       </c>
@@ -1865,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
         <v>24</v>
       </c>
@@ -1887,7 +1926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
         <v>24</v>
       </c>
@@ -1896,7 +1935,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
@@ -1907,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
@@ -1918,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +1966,7 @@
       </c>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>24</v>
       </c>
@@ -1938,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
         <v>24</v>
       </c>
@@ -1949,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1997,7 @@
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>24</v>
       </c>
@@ -1969,7 +2008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +2019,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +2030,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
         <v>24</v>
       </c>
@@ -2013,7 +2052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
@@ -2024,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
@@ -2035,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
         <v>24</v>
       </c>
@@ -2057,7 +2096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2107,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2118,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
@@ -2088,7 +2127,7 @@
       </c>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
@@ -2099,7 +2138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
         <v>24</v>
       </c>
@@ -2110,7 +2149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
         <v>24</v>
       </c>
@@ -2121,7 +2160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
@@ -2152,7 +2191,7 @@
       </c>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>24</v>
       </c>
@@ -2163,7 +2202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
         <v>24</v>
       </c>
@@ -2174,7 +2213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
         <v>24</v>
       </c>
@@ -2185,7 +2224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
         <v>24</v>
       </c>
@@ -2194,7 +2233,7 @@
       </c>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>24</v>
       </c>
@@ -2203,7 +2242,7 @@
       </c>
       <c r="D60" s="14"/>
     </row>
-    <row r="61" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="15" t="s">
         <v>24</v>
       </c>

--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL WORKSHOP RELATED\Workshop Program Files\Workshop_Materials\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27800" windowHeight="12590" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -295,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -886,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,26 +914,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,23 +949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1170,15 +1131,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1508,87 +1469,87 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -1609,19 +1570,19 @@
   <dimension ref="B1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:D58"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
-    <col min="3" max="3" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" style="1"/>
-    <col min="7" max="7" width="32.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1636,7 +1597,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>23</v>
       </c>
@@ -1647,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
@@ -1658,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1678,7 +1639,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
@@ -1689,7 +1650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1700,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
@@ -1720,7 +1681,7 @@
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1690,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +1701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
@@ -1749,7 +1710,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
@@ -1760,7 +1721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +1730,7 @@
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1778,7 +1739,7 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1798,7 +1759,7 @@
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
@@ -1809,7 +1770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1818,7 +1779,7 @@
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
@@ -1838,7 +1799,7 @@
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1849,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>23</v>
       </c>
@@ -1871,7 +1832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
@@ -1893,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
@@ -1915,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
         <v>24</v>
       </c>
@@ -1935,7 +1896,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +1907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
@@ -1957,7 +1918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>24</v>
       </c>
@@ -1966,7 +1927,7 @@
       </c>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>24</v>
       </c>
@@ -1977,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +1949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>24</v>
       </c>
@@ -1997,7 +1958,7 @@
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +1969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
@@ -2019,7 +1980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +1991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
@@ -2041,7 +2002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
         <v>24</v>
       </c>
@@ -2052,7 +2013,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
@@ -2085,7 +2046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
         <v>24</v>
       </c>
@@ -2096,7 +2057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
         <v>24</v>
       </c>
@@ -2107,7 +2068,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
@@ -2118,7 +2079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
@@ -2127,7 +2088,7 @@
       </c>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
@@ -2138,7 +2099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
         <v>24</v>
       </c>
@@ -2149,7 +2110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
         <v>24</v>
       </c>
@@ -2160,7 +2121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
         <v>24</v>
       </c>
@@ -2171,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>24</v>
       </c>
@@ -2182,7 +2143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
@@ -2191,7 +2152,7 @@
       </c>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>24</v>
       </c>
@@ -2202,7 +2163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
         <v>24</v>
       </c>
@@ -2213,7 +2174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
         <v>24</v>
       </c>
@@ -2233,7 +2194,7 @@
       </c>
       <c r="D59" s="14"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>24</v>
       </c>

--- a/Workshop_Materials.xlsx
+++ b/Workshop_Materials.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL WORKSHOP RELATED\Workshop Program Files\Workshop_Materials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27800" windowHeight="12590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>List of Components</t>
   </si>
@@ -285,22 +290,40 @@
   </si>
   <si>
     <t>16-a</t>
+  </si>
+  <si>
+    <t>Memory Management Exercise</t>
+  </si>
+  <si>
+    <t>Memory Management (4)</t>
+  </si>
+  <si>
+    <t>20-a</t>
+  </si>
+  <si>
+    <t>20-b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -702,122 +725,131 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,9 +946,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -949,6 +998,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1131,15 +1197,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1469,87 +1535,87 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="4:5" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -1567,22 +1633,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D61"/>
+  <dimension ref="B1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="37.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" style="1"/>
+    <col min="7" max="7" width="32.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -1597,7 +1663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
@@ -1619,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +1705,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
@@ -1650,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
@@ -1681,7 +1747,7 @@
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1690,7 +1756,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
@@ -1710,7 +1776,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>23</v>
       </c>
@@ -1730,7 +1796,7 @@
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1739,7 +1805,7 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1750,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1825,7 @@
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>23</v>
       </c>
@@ -1779,7 +1845,7 @@
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
@@ -1799,7 +1865,7 @@
       </c>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1810,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>24</v>
       </c>
@@ -1843,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
@@ -1854,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>24</v>
       </c>
@@ -1865,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
@@ -1876,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
         <v>24</v>
       </c>
@@ -1887,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
         <v>24</v>
       </c>
@@ -1896,7 +1962,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
         <v>24</v>
       </c>
@@ -1907,7 +1973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>24</v>
       </c>
@@ -1918,7 +1984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>24</v>
       </c>
@@ -1927,7 +1993,7 @@
       </c>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>24</v>
       </c>
@@ -1938,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
         <v>24</v>
       </c>
@@ -1949,7 +2015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +2024,7 @@
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>24</v>
       </c>
@@ -1969,7 +2035,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>24</v>
       </c>
@@ -1980,7 +2046,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +2057,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2068,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
         <v>24</v>
       </c>
@@ -2013,7 +2079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
@@ -2024,7 +2090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
@@ -2035,7 +2101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
@@ -2046,7 +2112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
         <v>24</v>
       </c>
@@ -2057,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
@@ -2079,7 +2145,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
         <v>24</v>
       </c>
@@ -2088,7 +2154,7 @@
       </c>
       <c r="D49" s="14"/>
     </row>
-    <row r="50" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
@@ -2099,7 +2165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
         <v>24</v>
       </c>
@@ -2110,7 +2176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
         <v>24</v>
       </c>
@@ -2121,7 +2187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
         <v>24</v>
       </c>
@@ -2132,7 +2198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
         <v>24</v>
       </c>
@@ -2152,7 +2218,7 @@
       </c>
       <c r="D55" s="14"/>
     </row>
-    <row r="56" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>24</v>
       </c>
@@ -2163,54 +2229,74 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
+      <c r="D57" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="14">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
-      <c r="B59" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="23" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="2:4" ht="11.45" x14ac:dyDescent="0.35">
-      <c r="B60" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="22" t="s">
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="27" t="s">
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="15"/>
+      <c r="D63" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
